--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Grey-headed Albatross_South Georgia.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Grey-headed Albatross_South Georgia.xlsx
@@ -4250,13 +4250,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABC14EB9-CBCE-4FDC-8190-477007F01B33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EBDFC3-8D05-4366-9711-F2E71DA27F5A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{447E47C9-17CD-4726-9DEE-6BD8CE05083F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099131FA-8D7E-44C6-B024-33313463563A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C3944B5-F763-418F-9D26-1568D09A41B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB026E7E-FEA3-4628-ADD1-45337B7A2960}"/>
 </file>